--- a/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7660685290450971</v>
+        <v>0.7379279073803862</v>
       </c>
       <c r="C11" t="n">
-        <v>2.378001774162102</v>
+        <v>2.312960425823969</v>
       </c>
       <c r="D11" t="n">
-        <v>4.14723427566422</v>
+        <v>4.08796560769951</v>
       </c>
     </row>
     <row r="12">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.726259661129415e-05</v>
+        <v>1.389915010521214</v>
       </c>
       <c r="C13" t="n">
-        <v>3.874719054998122e-05</v>
+        <v>3.820495239262026</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001665630430439105</v>
+        <v>7.991214952503402</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7379279073803862</v>
+        <v>0.7731822314006707</v>
       </c>
       <c r="C11" t="n">
-        <v>2.312960425823969</v>
+        <v>2.411983264579727</v>
       </c>
       <c r="D11" t="n">
-        <v>4.08796560769951</v>
+        <v>4.193372988964057</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02761415111836066</v>
+        <v>0.01298828659773245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09676669206884198</v>
+        <v>0.04435478545287196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1369579273783765</v>
+        <v>0.06486688458910585</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.389915010521214</v>
+        <v>1.192224089832478</v>
       </c>
       <c r="C13" t="n">
-        <v>3.820495239262026</v>
+        <v>3.98578503567309</v>
       </c>
       <c r="D13" t="n">
-        <v>7.991214952503402</v>
+        <v>6.22728508271179</v>
       </c>
     </row>
   </sheetData>
